--- a/Project Outputs for 3S_BMS/Output/BOM/Bill of Materials-3S_BMS.xlsx
+++ b/Project Outputs for 3S_BMS/Output/BOM/Bill of Materials-3S_BMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dems\AppData\Local\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[1] - Personal\[5] - Personal Development\[1] - Projects\[5] - 3S_BMS\Project Outputs for 3S_BMS\Output\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78F8D80B-AB42-49BE-A8AF-8919E9A19A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406A781F-13A2-4E1A-B288-370FF4699C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{1CA72155-7357-4E00-B160-5E042C6BA68A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B0A321F-9FAE-4678-BEA1-16317B8827DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-3S_BMS" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="256">
   <si>
     <t>Line #</t>
   </si>
   <si>
+    <t>DesignItemId</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -75,7 +78,10 @@
     <t>Supplier Part Number 1</t>
   </si>
   <si>
-    <t/>
+    <t>32</t>
+  </si>
+  <si>
+    <t>CAP_1uF_16V_20%_0805</t>
   </si>
   <si>
     <t>1uF</t>
@@ -96,12 +102,24 @@
     <t>Mouser</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CAP_1uF_50V_10%_0805</t>
+  </si>
+  <si>
     <t>Multilayer Ceramic Capacitor, 1 uF, 50 V, ± 10%, X7R, 0805 [2012 Metric]</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>CAP_0.1uF_16V_10%_0805</t>
+  </si>
+  <si>
     <t>0.1uF</t>
   </si>
   <si>
@@ -111,66 +129,87 @@
     <t>C5, C7, C8, C11, C12</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>CAP_0.1uF_50V_10%_0805</t>
+  </si>
+  <si>
     <t>SMD Comm X7R 0805 (2012Metric) Ceramic Capacitor 0.079Lx0.049W 2.00mmx1.25mm X7R ±10% 0.1muF</t>
   </si>
   <si>
     <t>C13, C18</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>CAP_22uF-25V-20%-0805</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>0805 25 V 22 uF ±20% Tolerance X5R Monolithic Ceramic Chip Capacitor</t>
+  </si>
+  <si>
+    <t>C14, C15</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM21BR61E226ME44K</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>490-14661-1-ND</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>CAP_10uF_25V_10%_1206</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitor, 10 uF, 25 V, ± 10%, X5R, 1206 [3216 Metric]</t>
+  </si>
+  <si>
+    <t>C16, C17</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>CAP_1206</t>
+  </si>
+  <si>
     <t>KEMET</t>
   </si>
   <si>
-    <t>C0805C104K5RAC7210</t>
+    <t>C1206C106K3PACTU</t>
   </si>
   <si>
     <t>Volume Production</t>
   </si>
   <si>
-    <t>80-C0805C104K5R7210</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>0805 25 V 22 uF ±20% Tolerance X5R Monolithic Ceramic Chip Capacitor</t>
-  </si>
-  <si>
-    <t>C14, C15</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>GRM21BR61E226ME44K</t>
-  </si>
-  <si>
-    <t>Digi-Key</t>
-  </si>
-  <si>
-    <t>490-14661-1-ND</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitor, 10 uF, 25 V, ± 10%, X5R, 1206 [3216 Metric]</t>
-  </si>
-  <si>
-    <t>C16, C17</t>
-  </si>
-  <si>
-    <t>1206</t>
-  </si>
-  <si>
-    <t>CAP_1206</t>
-  </si>
-  <si>
-    <t>C1206C106K3PACTU</t>
+    <t>Digikey</t>
   </si>
   <si>
     <t>399-C1206C106K3PAC7800DKR-ND</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>CON_ED_2-pos_2.54mm_Phoenix Contact</t>
+  </si>
+  <si>
     <t>1800001</t>
   </si>
   <si>
@@ -189,6 +228,12 @@
     <t>277-17216-ND</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>CON_ED_DC-JACK_RA_PJ-002A</t>
+  </si>
+  <si>
     <t>PJ-002A</t>
   </si>
   <si>
@@ -207,6 +252,12 @@
     <t>CP-002A-ND</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>CON_18650_BATT</t>
+  </si>
+  <si>
     <t>1042P</t>
   </si>
   <si>
@@ -222,6 +273,12 @@
     <t>36-1042P-ND</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>LED_Red_0603_2.2V_HSMS-C190</t>
+  </si>
+  <si>
     <t>HSMS-C190</t>
   </si>
   <si>
@@ -240,6 +297,12 @@
     <t>516-1422-1-ND</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>LED_Green_0603_2.2V_HSMG-C190</t>
+  </si>
+  <si>
     <t>HSMG-C190</t>
   </si>
   <si>
@@ -252,6 +315,12 @@
     <t>516-1425-1-ND</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>DIO_100V_0.25A_SOD-323F</t>
+  </si>
+  <si>
     <t>BAS16J,135</t>
   </si>
   <si>
@@ -273,6 +342,12 @@
     <t>1727-4797-1-ND</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>DIO-Z_16V_200mW_5%_SOD-323</t>
+  </si>
+  <si>
     <t>MMXZ5246B-TP</t>
   </si>
   <si>
@@ -291,6 +366,12 @@
     <t>353-MMXZ5246B-TPCT-ND</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>IND_3.3uH_6.5A_20%_Non-Std</t>
+  </si>
+  <si>
     <t>3.3uH</t>
   </si>
   <si>
@@ -315,6 +396,9 @@
     <t>732-1152-1-ND</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>Header 5X2</t>
   </si>
   <si>
@@ -327,6 +411,9 @@
     <t>HDR2X5</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Header 2X2</t>
   </si>
   <si>
@@ -339,6 +426,12 @@
     <t>HDR2X2</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>MOSFET-Dual_P/N-30V</t>
+  </si>
+  <si>
     <t>IRF7319TRPBF</t>
   </si>
   <si>
@@ -360,6 +453,12 @@
     <t>IRF7319PBFCT-ND</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>MOSFET-N_60V-50A_VSONP-8</t>
+  </si>
+  <si>
     <t>CSD18534Q5A</t>
   </si>
   <si>
@@ -378,6 +477,12 @@
     <t>296-35583-1-ND</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>RES_10K_1/8W_1%_0805</t>
+  </si>
+  <si>
     <t>10K</t>
   </si>
   <si>
@@ -393,6 +498,12 @@
     <t>Rs</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>RES_1K_1/8W_1%_0805</t>
+  </si>
+  <si>
     <t>1K</t>
   </si>
   <si>
@@ -411,6 +522,12 @@
     <t>311-1.00KCRCT-ND</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>RES_100K_1/8W_1%_0805</t>
+  </si>
+  <si>
     <t>100K</t>
   </si>
   <si>
@@ -423,6 +540,12 @@
     <t>Future Electronics</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>RES_49.9R_1/4W_1%_1206</t>
+  </si>
+  <si>
     <t>49.9R</t>
   </si>
   <si>
@@ -441,6 +564,12 @@
     <t>311-49.9FRCT-ND</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>RES_100R_1/8W_1%_0805</t>
+  </si>
+  <si>
     <t>100R</t>
   </si>
   <si>
@@ -456,6 +585,12 @@
     <t>311-100CRCT-ND</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>RES_5.1K_1/8W_1%_0805</t>
+  </si>
+  <si>
     <t>5.1K</t>
   </si>
   <si>
@@ -471,6 +606,12 @@
     <t>311-5.10KCRCT-ND</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>RES_1M_1/8W_1%_0805</t>
+  </si>
+  <si>
     <t>1M</t>
   </si>
   <si>
@@ -486,6 +627,12 @@
     <t>13-RC0805FR-131MLCT-ND</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>RES_470K_1/8W_5%_0805</t>
+  </si>
+  <si>
     <t>470K</t>
   </si>
   <si>
@@ -501,6 +648,12 @@
     <t>311-470KARCT-ND</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>RES_10M_1/8W_5%_0805</t>
+  </si>
+  <si>
     <t>10M</t>
   </si>
   <si>
@@ -516,6 +669,12 @@
     <t>311-10MARCT-ND</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>RES_3M_1/8W_5%_0805</t>
+  </si>
+  <si>
     <t>3M</t>
   </si>
   <si>
@@ -531,6 +690,12 @@
     <t>311-3.0MARCT-ND</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>RES_0.01R_1/2W_1%_2010</t>
+  </si>
+  <si>
     <t>0.01R</t>
   </si>
   <si>
@@ -552,6 +717,12 @@
     <t>13-PE2010FKE070R01LCT-ND</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>RES_54.9K_1/8W_1%_0805</t>
+  </si>
+  <si>
     <t>54.9K</t>
   </si>
   <si>
@@ -570,6 +741,12 @@
     <t>P54.9KCDKR-ND</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>SW_SPST_NO_EVP-AA602W_SMT</t>
+  </si>
+  <si>
     <t>EVP-AA602W</t>
   </si>
   <si>
@@ -585,6 +762,12 @@
     <t>10-EVP-AA602WCT-ND</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>IC_BMS_3S_BQ77915_24TSSOP</t>
+  </si>
+  <si>
     <t>BQ7791500PWR</t>
   </si>
   <si>
@@ -598,6 +781,12 @@
   </si>
   <si>
     <t>296-50995-1-ND</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>REG_ADJ-0.768V-7V_2A_SOT23-6</t>
   </si>
   <si>
     <t>TPS562201DDCR</t>
@@ -997,30 +1186,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A32E86-2EC9-429D-A480-8B9609D7AF60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D046507-5239-4AAD-A205-75EC2072DA85}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" customWidth="1"/>
+    <col min="13" max="13" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1057,1113 +1247,1241 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="G12" s="4"/>
+      <c r="H12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="4">
+      <c r="L13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3" t="s">
+      <c r="G14" s="4"/>
+      <c r="H14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="M14" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="G15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="4">
+        <v>126</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="B18" s="3" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="4">
+        <v>132</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="3" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="4">
+        <v>141</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="4">
+        <v>149</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="4">
         <v>8</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="K20" s="4"/>
+      <c r="L20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="4">
+        <v>156</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="4">
         <v>5</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="4"/>
       <c r="L21" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="4">
+        <v>164</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="4">
         <v>2</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="K22" s="4"/>
+      <c r="L22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="4">
+        <v>170</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="4">
         <v>4</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="3" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="4">
+        <v>178</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="4">
         <v>2</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="3" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="4">
+        <v>185</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="4">
         <v>2</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" s="4"/>
       <c r="L25" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="B26" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="J33" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F34" s="4">
         <v>1</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="G34" s="3" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>192</v>
+        <v>53</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
